--- a/Arquivos/Config.xlsx
+++ b/Arquivos/Config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nome base</t>
   </si>
@@ -37,16 +37,25 @@
     <t>Base B</t>
   </si>
   <si>
-    <t>C:\Users\jairm\Documents\Code\Empilhador\Arquivos\BaseA.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\jairm\Documents\Code\Empilhador\Arquivos\BaseA.xBsx</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>basea</t>
+  </si>
+  <si>
+    <t>baseb</t>
+  </si>
+  <si>
+    <t>C:\Users\jairm\Documents\Code\Empilhador\empilhador\Arquivos\BaseA.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\jairm\Documents\Code\Empilhador\empilhador\Arquivos\BaseB.xlsx</t>
   </si>
 </sst>
 </file>
@@ -111,10 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,56 +431,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -477,33 +493,39 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -511,8 +533,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -520,8 +543,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -529,8 +553,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -538,8 +563,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -547,8 +573,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -556,8 +583,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -565,8 +593,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -574,8 +603,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -583,8 +613,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -592,6 +623,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arquivos/Config.xlsx
+++ b/Arquivos/Config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nome base</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Base B</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
@@ -56,6 +50,18 @@
   </si>
   <si>
     <t>C:\Users\jairm\Documents\Code\Empilhador\empilhador\Arquivos\BaseB.xlsx</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
   </si>
 </sst>
 </file>
@@ -120,13 +126,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,12 +456,12 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -467,21 +476,27 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -498,25 +513,29 @@
       <c r="H2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -524,8 +543,14 @@
       <c r="H3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -534,8 +559,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -544,8 +571,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -554,8 +583,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -564,8 +595,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -574,8 +607,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -584,8 +619,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -594,8 +631,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -604,8 +643,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -614,8 +655,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -624,6 +667,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arquivos/Config.xlsx
+++ b/Arquivos/Config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nome base</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>COD</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K1" sqref="K1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +459,7 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +490,11 @@
       <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,8 +523,11 @@
         <v>3</v>
       </c>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -549,8 +558,9 @@
       <c r="J3" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -561,8 +571,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -573,8 +584,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -585,8 +597,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -597,8 +610,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -609,8 +623,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -621,8 +636,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -633,8 +649,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -645,8 +662,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -657,8 +675,9 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -669,6 +688,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
